--- a/corruption_perceptions _index_2022.xlsx
+++ b/corruption_perceptions _index_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivann\Desktop\Mid Term Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8d1fa1128b63067/Documents/GitHub/IH_AB_DA_FT_MAY_2023/Midterm_projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23E635C-2F7D-4B43-8CEC-F9617CA27272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A23E635C-2F7D-4B43-8CEC-F9617CA27272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C40100-9A0B-4DB8-99CB-C8AC3FD89CCC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7DD2FFC-A3A9-441B-99D1-7C198390458E}"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="14496" windowHeight="9960" xr2:uid="{E7DD2FFC-A3A9-441B-99D1-7C198390458E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>Rank_corruption</t>
   </si>
   <si>
-    <t>Country_corruption</t>
-  </si>
-  <si>
-    <t>Score_Corruption</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -574,6 +568,12 @@
   </si>
   <si>
     <t>Bhutan</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>corruption_score</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -938,11 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FBB6F2-8A04-4DFB-B197-DD80F99DAFC1}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -951,10 +949,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -965,7 +963,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -976,7 +974,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -987,7 +985,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -998,7 +996,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1009,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1020,7 +1018,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1031,7 +1029,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1042,7 +1040,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1053,7 +1051,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1064,7 +1062,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1075,7 +1073,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1086,7 +1084,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1097,7 +1095,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1108,7 +1106,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1119,7 +1117,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -1130,7 +1128,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -1141,7 +1139,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>14</v>
@@ -1152,7 +1150,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1163,7 +1161,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -1174,7 +1172,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>18</v>
@@ -1185,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1196,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1207,7 +1205,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1218,7 +1216,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1229,7 +1227,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1240,7 +1238,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -1251,7 +1249,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1262,7 +1260,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -1273,7 +1271,7 @@
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1284,7 +1282,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -1295,7 +1293,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -1306,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -1317,7 +1315,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -1328,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -1339,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -1350,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
@@ -1361,7 +1359,7 @@
         <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>35</v>
@@ -1372,7 +1370,7 @@
         <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>35</v>
@@ -1383,7 +1381,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
@@ -1394,7 +1392,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
@@ -1405,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
@@ -1416,7 +1414,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -1427,7 +1425,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
         <v>41</v>
@@ -1438,7 +1436,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>41</v>
@@ -1449,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
@@ -1460,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -1471,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>45</v>
@@ -1482,7 +1480,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -1493,7 +1491,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
@@ -1504,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
@@ -1515,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
@@ -1526,7 +1524,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
@@ -1537,7 +1535,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>51</v>
@@ -1548,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
@@ -1559,7 +1557,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -1570,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
         <v>54</v>
@@ -1581,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
         <v>57</v>
@@ -1592,7 +1590,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -1603,7 +1601,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -1614,7 +1612,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -1625,7 +1623,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -1636,7 +1634,7 @@
         <v>47</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -1647,7 +1645,7 @@
         <v>46</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -1658,7 +1656,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
@@ -1669,7 +1667,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -1680,7 +1678,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -1691,7 +1689,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1">
         <v>65</v>
@@ -1702,7 +1700,7 @@
         <v>45</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
         <v>65</v>
@@ -1713,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
@@ -1724,7 +1722,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -1735,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
         <v>69</v>
@@ -1746,7 +1744,7 @@
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -1757,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -1768,7 +1766,7 @@
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1">
         <v>72</v>
@@ -1779,7 +1777,7 @@
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1">
         <v>72</v>
@@ -1790,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1">
         <v>72</v>
@@ -1801,7 +1799,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -1812,7 +1810,7 @@
         <v>42</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -1823,7 +1821,7 @@
         <v>42</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1">
         <v>77</v>
@@ -1834,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1">
         <v>77</v>
@@ -1845,7 +1843,7 @@
         <v>42</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1">
         <v>77</v>
@@ -1856,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1">
         <v>77</v>
@@ -1867,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1">
         <v>77</v>
@@ -1878,7 +1876,7 @@
         <v>41</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1">
         <v>84</v>
@@ -1889,7 +1887,7 @@
         <v>40</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1">
         <v>85</v>
@@ -1900,7 +1898,7 @@
         <v>40</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -1911,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1">
         <v>85</v>
@@ -1922,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
         <v>85</v>
@@ -1933,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1">
         <v>85</v>
@@ -1944,7 +1942,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>85</v>
@@ -1955,7 +1953,7 @@
         <v>39</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -1966,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
@@ -1977,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" s="1">
         <v>91</v>
@@ -1988,7 +1986,7 @@
         <v>38</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95" s="1">
         <v>94</v>
@@ -1999,7 +1997,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
@@ -2010,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>94</v>
@@ -2021,7 +2019,7 @@
         <v>38</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1">
         <v>94</v>
@@ -2032,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1">
         <v>94</v>
@@ -2043,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -2054,7 +2052,7 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -2065,7 +2063,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102" s="1">
         <v>101</v>
@@ -2076,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -2087,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="1">
         <v>101</v>
@@ -2098,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="1">
         <v>101</v>
@@ -2109,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" s="1">
         <v>101</v>
@@ -2120,7 +2118,7 @@
         <v>36</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1">
         <v>101</v>
@@ -2131,7 +2129,7 @@
         <v>36</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108" s="1">
         <v>101</v>
@@ -2142,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" s="1">
         <v>101</v>
@@ -2153,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110" s="1">
         <v>101</v>
@@ -2164,7 +2162,7 @@
         <v>34</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" s="1">
         <v>110</v>
@@ -2175,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C112" s="1">
         <v>110</v>
@@ -2186,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113" s="1">
         <v>110</v>
@@ -2197,7 +2195,7 @@
         <v>34</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C114" s="1">
         <v>110</v>
@@ -2208,7 +2206,7 @@
         <v>34</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" s="1">
         <v>110</v>
@@ -2219,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C116" s="1">
         <v>110</v>
@@ -2230,7 +2228,7 @@
         <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" s="1">
         <v>116</v>
@@ -2241,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C118" s="1">
         <v>116</v>
@@ -2252,7 +2250,7 @@
         <v>33</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119" s="1">
         <v>116</v>
@@ -2263,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120" s="1">
         <v>116</v>
@@ -2274,7 +2272,7 @@
         <v>33</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121" s="1">
         <v>116</v>
@@ -2285,7 +2283,7 @@
         <v>33</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122" s="1">
         <v>116</v>
@@ -2296,7 +2294,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" s="1">
         <v>116</v>
@@ -2307,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124" s="1">
         <v>123</v>
@@ -2318,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125" s="1">
         <v>123</v>
@@ -2329,7 +2327,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" s="1">
         <v>123</v>
@@ -2340,7 +2338,7 @@
         <v>31</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127" s="1">
         <v>126</v>
@@ -2351,7 +2349,7 @@
         <v>31</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1">
         <v>126</v>
@@ -2362,7 +2360,7 @@
         <v>31</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" s="1">
         <v>126</v>
@@ -2373,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130" s="1">
         <v>126</v>
@@ -2384,7 +2382,7 @@
         <v>30</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131" s="1">
         <v>130</v>
@@ -2395,7 +2393,7 @@
         <v>30</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132" s="1">
         <v>130</v>
@@ -2406,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133" s="1">
         <v>130</v>
@@ -2417,7 +2415,7 @@
         <v>30</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C134" s="1">
         <v>130</v>
@@ -2428,7 +2426,7 @@
         <v>30</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C135" s="1">
         <v>130</v>
@@ -2439,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C136" s="1">
         <v>130</v>
@@ -2450,7 +2448,7 @@
         <v>29</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137" s="1">
         <v>136</v>
@@ -2461,7 +2459,7 @@
         <v>28</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C138" s="1">
         <v>137</v>
@@ -2472,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C139" s="1">
         <v>137</v>
@@ -2483,7 +2481,7 @@
         <v>28</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C140" s="1">
         <v>137</v>
@@ -2494,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C141" s="1">
         <v>140</v>
@@ -2505,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C142" s="1">
         <v>140</v>
@@ -2516,7 +2514,7 @@
         <v>26</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C143" s="1">
         <v>142</v>
@@ -2527,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C144" s="1">
         <v>142</v>
@@ -2538,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C145" s="1">
         <v>142</v>
@@ -2549,7 +2547,7 @@
         <v>26</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C146" s="1">
         <v>142</v>
@@ -2560,7 +2558,7 @@
         <v>26</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C147" s="1">
         <v>142</v>
@@ -2571,7 +2569,7 @@
         <v>25</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C148" s="1">
         <v>147</v>
@@ -2582,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C149" s="1">
         <v>147</v>
@@ -2593,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C150" s="1">
         <v>147</v>
@@ -2604,7 +2602,7 @@
         <v>24</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C151" s="1">
         <v>150</v>
@@ -2615,7 +2613,7 @@
         <v>24</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C152" s="1">
         <v>150</v>
@@ -2626,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C153" s="1">
         <v>150</v>
@@ -2637,7 +2635,7 @@
         <v>24</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C154" s="1">
         <v>150</v>
@@ -2648,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C155" s="1">
         <v>150</v>
@@ -2659,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C156" s="1">
         <v>150</v>
@@ -2670,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C157" s="1">
         <v>150</v>
@@ -2681,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C158" s="1">
         <v>157</v>
@@ -2692,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C159" s="1">
         <v>157</v>
@@ -2703,7 +2701,7 @@
         <v>23</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C160" s="1">
         <v>157</v>
@@ -2714,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C161" s="1">
         <v>157</v>
@@ -2725,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1">
         <v>157</v>
@@ -2736,7 +2734,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C163" s="1">
         <v>162</v>
@@ -2747,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1">
         <v>162</v>
@@ -2758,7 +2756,7 @@
         <v>21</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C165" s="1">
         <v>164</v>
@@ -2769,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C166" s="1">
         <v>164</v>
@@ -2780,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C167" s="1">
         <v>166</v>
@@ -2791,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C168" s="1">
         <v>167</v>
@@ -2802,7 +2800,7 @@
         <v>19</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C169" s="1">
         <v>167</v>
@@ -2813,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C170" s="1">
         <v>167</v>
@@ -2824,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1">
         <v>167</v>
@@ -2835,7 +2833,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C172" s="1">
         <v>171</v>
@@ -2846,7 +2844,7 @@
         <v>17</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1">
         <v>171</v>
@@ -2857,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C174" s="1">
         <v>171</v>
@@ -2868,7 +2866,7 @@
         <v>17</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C175" s="1">
         <v>171</v>
@@ -2879,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C176" s="1">
         <v>171</v>
@@ -2890,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1">
         <v>176</v>
@@ -2901,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C178" s="1">
         <v>177</v>
@@ -2912,7 +2910,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C179" s="1">
         <v>178</v>
@@ -2923,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C180" s="1">
         <v>178</v>
@@ -2934,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C181" s="1">
         <v>180</v>
